--- a/data/n2v/tables/model-1-1536-20230829-25.xlsx
+++ b/data/n2v/tables/model-1-1536-20230829-25.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -12286,7 +12286,7 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -13258,7 +13258,7 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         </is>
       </c>
       <c r="C715" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -13528,7 +13528,7 @@
         </is>
       </c>
       <c r="C728" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         </is>
       </c>
       <c r="C736" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         </is>
       </c>
       <c r="C738" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         </is>
       </c>
       <c r="C746" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         </is>
       </c>
       <c r="C748" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         </is>
       </c>
       <c r="C750" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         </is>
       </c>
       <c r="C751" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -14554,7 +14554,7 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -14662,7 +14662,7 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         </is>
       </c>
       <c r="C794" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         </is>
       </c>
       <c r="C807" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         </is>
       </c>
       <c r="C809" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         </is>
       </c>
       <c r="C810" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         </is>
       </c>
       <c r="C837" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         </is>
       </c>
       <c r="C868" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         </is>
       </c>
       <c r="C880" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -16552,7 +16552,7 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -16588,7 +16588,7 @@
         </is>
       </c>
       <c r="C898" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         </is>
       </c>
       <c r="C899" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -16714,7 +16714,7 @@
         </is>
       </c>
       <c r="C905" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         </is>
       </c>
       <c r="C906" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         </is>
       </c>
       <c r="C908" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         </is>
       </c>
       <c r="C913" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         </is>
       </c>
       <c r="C914" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         </is>
       </c>
       <c r="C916" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         </is>
       </c>
       <c r="C917" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         </is>
       </c>
       <c r="C919" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         </is>
       </c>
       <c r="C920" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         </is>
       </c>
       <c r="C927" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         </is>
       </c>
       <c r="C928" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="C929" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         </is>
       </c>
       <c r="C938" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         </is>
       </c>
       <c r="C953" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         </is>
       </c>
       <c r="C957" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -17686,7 +17686,7 @@
         </is>
       </c>
       <c r="C959" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         </is>
       </c>
       <c r="C960" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         </is>
       </c>
       <c r="C962" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -17866,7 +17866,7 @@
         </is>
       </c>
       <c r="C969" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         </is>
       </c>
       <c r="C984" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         </is>
       </c>
       <c r="C985" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         </is>
       </c>
       <c r="C990" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         </is>
       </c>
       <c r="C991" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         </is>
       </c>
       <c r="C992" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         </is>
       </c>
       <c r="C1002" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         </is>
       </c>
       <c r="C1003" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="C1004" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         </is>
       </c>
       <c r="C1005" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         </is>
       </c>
       <c r="C1006" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         </is>
       </c>
       <c r="C1008" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         </is>
       </c>
       <c r="C1015" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -18730,7 +18730,7 @@
         </is>
       </c>
       <c r="C1017" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
         </is>
       </c>
       <c r="C1020" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         </is>
       </c>
       <c r="C1022" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         </is>
       </c>
       <c r="C1027" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="C1029" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         </is>
       </c>
       <c r="C1037" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         </is>
       </c>
       <c r="C1040" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         </is>
       </c>
       <c r="C1042" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         </is>
       </c>
       <c r="C1043" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -19234,7 +19234,7 @@
         </is>
       </c>
       <c r="C1045" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         </is>
       </c>
       <c r="C1049" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         </is>
       </c>
       <c r="C1051" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         </is>
       </c>
       <c r="C1052" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         </is>
       </c>
       <c r="C1053" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1053" t="inlineStr">
         <is>
@@ -19414,7 +19414,7 @@
         </is>
       </c>
       <c r="C1055" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1055" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         </is>
       </c>
       <c r="C1057" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1057" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         </is>
       </c>
       <c r="C1059" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1059" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         </is>
       </c>
       <c r="C1060" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1060" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1062" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         </is>
       </c>
       <c r="C1063" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1063" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1065" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         </is>
       </c>
       <c r="C1066" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1066" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         </is>
       </c>
       <c r="C1068" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1068" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         </is>
       </c>
       <c r="C1070" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1070" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         </is>
       </c>
       <c r="C1072" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1072" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         </is>
       </c>
       <c r="C1075" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1075" t="inlineStr">
         <is>
@@ -19810,7 +19810,7 @@
         </is>
       </c>
       <c r="C1077" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1077" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1080" t="inlineStr">
         <is>
@@ -19882,7 +19882,7 @@
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1081" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         </is>
       </c>
       <c r="C1082" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1082" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1087" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1088" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1089" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1090" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         </is>
       </c>
       <c r="C1091" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1091" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1093" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
         </is>
       </c>
       <c r="C1096" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1096" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         </is>
       </c>
       <c r="C1098" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1098" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1099" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1102" t="inlineStr">
         <is>
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="C1104" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1104" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         </is>
       </c>
       <c r="C1105" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1105" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1106" t="inlineStr">
         <is>
@@ -20368,7 +20368,7 @@
         </is>
       </c>
       <c r="C1108" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1108" t="inlineStr">
         <is>
@@ -20404,7 +20404,7 @@
         </is>
       </c>
       <c r="C1110" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1110" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         </is>
       </c>
       <c r="C1112" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1112" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         </is>
       </c>
       <c r="C1117" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1117" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         </is>
       </c>
       <c r="C1118" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1118" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         </is>
       </c>
       <c r="C1120" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1120" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1121" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         </is>
       </c>
       <c r="C1122" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1122" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         </is>
       </c>
       <c r="C1123" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1123" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         </is>
       </c>
       <c r="C1126" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1126" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         </is>
       </c>
       <c r="C1132" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1132" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         </is>
       </c>
       <c r="C1139" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1139" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         </is>
       </c>
       <c r="C1143" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1143" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1145" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         </is>
       </c>
       <c r="C1146" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1146" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
         </is>
       </c>
       <c r="C1148" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1148" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         </is>
       </c>
       <c r="C1150" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1150" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         </is>
       </c>
       <c r="C1153" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1153" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="C1154" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1154" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         </is>
       </c>
       <c r="C1156" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1156" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         </is>
       </c>
       <c r="C1157" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1157" t="inlineStr">
         <is>
@@ -21304,7 +21304,7 @@
         </is>
       </c>
       <c r="C1160" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1160" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         </is>
       </c>
       <c r="C1161" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1161" t="inlineStr">
         <is>
@@ -21430,7 +21430,7 @@
         </is>
       </c>
       <c r="C1167" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1167" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         </is>
       </c>
       <c r="C1168" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1168" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         </is>
       </c>
       <c r="C1170" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1170" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1171" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         </is>
       </c>
       <c r="C1173" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1173" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         </is>
       </c>
       <c r="C1175" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1175" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         </is>
       </c>
       <c r="C1176" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1176" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         </is>
       </c>
       <c r="C1177" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1177" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1180" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         </is>
       </c>
       <c r="C1181" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1181" t="inlineStr">
         <is>
@@ -21700,7 +21700,7 @@
         </is>
       </c>
       <c r="C1182" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1182" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         </is>
       </c>
       <c r="C1183" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1183" t="inlineStr">
         <is>
@@ -21736,7 +21736,7 @@
         </is>
       </c>
       <c r="C1184" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1184" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         </is>
       </c>
       <c r="C1185" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1185" t="inlineStr">
         <is>
@@ -21772,7 +21772,7 @@
         </is>
       </c>
       <c r="C1186" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1186" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         </is>
       </c>
       <c r="C1188" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1188" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="C1189" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1189" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1194" t="inlineStr">
         <is>
@@ -21934,7 +21934,7 @@
         </is>
       </c>
       <c r="C1195" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1195" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         </is>
       </c>
       <c r="C1197" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1197" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         </is>
       </c>
       <c r="C1199" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1199" t="inlineStr">
         <is>
@@ -22024,7 +22024,7 @@
         </is>
       </c>
       <c r="C1200" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1200" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         </is>
       </c>
       <c r="C1202" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1202" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         </is>
       </c>
       <c r="C1206" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1206" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         </is>
       </c>
       <c r="C1208" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1208" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         </is>
       </c>
       <c r="C1209" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1209" t="inlineStr">
         <is>
@@ -22222,7 +22222,7 @@
         </is>
       </c>
       <c r="C1211" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1211" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         </is>
       </c>
       <c r="C1215" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1215" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         </is>
       </c>
       <c r="C1218" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1218" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         </is>
       </c>
       <c r="C1221" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1221" t="inlineStr">
         <is>
@@ -22420,7 +22420,7 @@
         </is>
       </c>
       <c r="C1222" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1222" t="inlineStr">
         <is>
@@ -22456,7 +22456,7 @@
         </is>
       </c>
       <c r="C1224" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1224" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         </is>
       </c>
       <c r="C1226" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1226" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         </is>
       </c>
       <c r="C1228" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1228" t="inlineStr">
         <is>
@@ -22672,7 +22672,7 @@
         </is>
       </c>
       <c r="C1236" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1236" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         </is>
       </c>
       <c r="C1237" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1237" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         </is>
       </c>
       <c r="C1238" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1238" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         </is>
       </c>
       <c r="C1239" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1239" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         </is>
       </c>
       <c r="C1240" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1240" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         </is>
       </c>
       <c r="C1241" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1241" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         </is>
       </c>
       <c r="C1242" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1242" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         </is>
       </c>
       <c r="C1245" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1245" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         </is>
       </c>
       <c r="C1249" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1249" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         </is>
       </c>
       <c r="C1255" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1255" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         </is>
       </c>
       <c r="C1257" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1257" t="inlineStr">
         <is>
@@ -23068,7 +23068,7 @@
         </is>
       </c>
       <c r="C1258" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1258" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         </is>
       </c>
       <c r="C1260" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1260" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         </is>
       </c>
       <c r="C1261" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1261" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         </is>
       </c>
       <c r="C1263" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1263" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         </is>
       </c>
       <c r="C1265" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1265" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         </is>
       </c>
       <c r="C1268" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1268" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="C1269" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1269" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         </is>
       </c>
       <c r="C1270" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1270" t="inlineStr">
         <is>
@@ -23374,7 +23374,7 @@
         </is>
       </c>
       <c r="C1275" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1275" t="inlineStr">
         <is>
@@ -23410,7 +23410,7 @@
         </is>
       </c>
       <c r="C1277" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1277" t="inlineStr">
         <is>
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="C1279" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1279" t="inlineStr">
         <is>
@@ -23500,7 +23500,7 @@
         </is>
       </c>
       <c r="C1282" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1282" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         </is>
       </c>
       <c r="C1286" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1286" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         </is>
       </c>
       <c r="C1293" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1293" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         </is>
       </c>
       <c r="C1294" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1294" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         </is>
       </c>
       <c r="C1297" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1297" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         </is>
       </c>
       <c r="C1299" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1299" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         </is>
       </c>
       <c r="C1301" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1301" t="inlineStr">
         <is>
@@ -23860,7 +23860,7 @@
         </is>
       </c>
       <c r="C1302" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1302" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         </is>
       </c>
       <c r="C1303" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1303" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="C1304" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1304" t="inlineStr">
         <is>
@@ -23932,7 +23932,7 @@
         </is>
       </c>
       <c r="C1306" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1306" t="inlineStr">
         <is>
@@ -23950,7 +23950,7 @@
         </is>
       </c>
       <c r="C1307" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1307" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         </is>
       </c>
       <c r="C1315" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1315" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         </is>
       </c>
       <c r="C1316" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1316" t="inlineStr">
         <is>
@@ -24130,7 +24130,7 @@
         </is>
       </c>
       <c r="C1317" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1317" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         </is>
       </c>
       <c r="C1318" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1318" t="inlineStr">
         <is>
@@ -24166,7 +24166,7 @@
         </is>
       </c>
       <c r="C1319" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1319" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         </is>
       </c>
       <c r="C1320" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1320" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         </is>
       </c>
       <c r="C1321" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1321" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         </is>
       </c>
       <c r="C1323" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1323" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         </is>
       </c>
       <c r="C1324" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1324" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         </is>
       </c>
       <c r="C1325" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1325" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         </is>
       </c>
       <c r="C1326" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1326" t="inlineStr">
         <is>
@@ -24418,7 +24418,7 @@
         </is>
       </c>
       <c r="C1333" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1333" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         </is>
       </c>
       <c r="C1334" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1334" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         </is>
       </c>
       <c r="C1351" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1351" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         </is>
       </c>
       <c r="C1357" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1357" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         </is>
       </c>
       <c r="C1358" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1358" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         </is>
       </c>
       <c r="C1359" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1359" t="inlineStr">
         <is>
@@ -24994,7 +24994,7 @@
         </is>
       </c>
       <c r="C1365" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1365" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         </is>
       </c>
       <c r="C1368" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1368" t="inlineStr">
         <is>
@@ -25066,7 +25066,7 @@
         </is>
       </c>
       <c r="C1369" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1369" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         </is>
       </c>
       <c r="C1371" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1371" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         </is>
       </c>
       <c r="C1372" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1372" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         </is>
       </c>
       <c r="C1381" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1381" t="inlineStr">
         <is>
@@ -25318,7 +25318,7 @@
         </is>
       </c>
       <c r="C1383" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1383" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         </is>
       </c>
       <c r="C1384" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1384" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         </is>
       </c>
       <c r="C1385" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1385" t="inlineStr">
         <is>
@@ -25498,7 +25498,7 @@
         </is>
       </c>
       <c r="C1393" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1393" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         </is>
       </c>
       <c r="C1399" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1399" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         </is>
       </c>
       <c r="C1416" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1416" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="C1422" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1422" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         </is>
       </c>
       <c r="C1423" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1423" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         </is>
       </c>
       <c r="C1430" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1430" t="inlineStr">
         <is>
@@ -26380,7 +26380,7 @@
         </is>
       </c>
       <c r="C1442" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1442" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         </is>
       </c>
       <c r="C1445" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1445" t="inlineStr">
         <is>
@@ -26452,7 +26452,7 @@
         </is>
       </c>
       <c r="C1446" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1446" t="inlineStr">
         <is>
@@ -26812,7 +26812,7 @@
         </is>
       </c>
       <c r="C1466" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1466" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="C1469" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1469" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         </is>
       </c>
       <c r="C1476" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1476" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         </is>
       </c>
       <c r="C1484" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1484" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         </is>
       </c>
       <c r="C1492" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1492" t="inlineStr">
         <is>
@@ -27298,7 +27298,7 @@
         </is>
       </c>
       <c r="C1493" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1493" t="inlineStr">
         <is>
@@ -27316,7 +27316,7 @@
         </is>
       </c>
       <c r="C1494" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1494" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         </is>
       </c>
       <c r="C1508" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1508" t="inlineStr">
         <is>
@@ -27676,7 +27676,7 @@
         </is>
       </c>
       <c r="C1514" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1514" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         </is>
       </c>
       <c r="C1525" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1525" t="inlineStr">
         <is>
@@ -27892,7 +27892,7 @@
         </is>
       </c>
       <c r="C1526" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1526" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         </is>
       </c>
       <c r="C1528" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1528" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         </is>
       </c>
       <c r="C1538" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1538" t="inlineStr">
         <is>
@@ -28414,7 +28414,7 @@
         </is>
       </c>
       <c r="C1555" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1555" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         </is>
       </c>
       <c r="C1563" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1563" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         </is>
       </c>
       <c r="C1565" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1565" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         </is>
       </c>
       <c r="C1567" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1567" t="inlineStr">
         <is>
@@ -28720,7 +28720,7 @@
         </is>
       </c>
       <c r="C1572" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1572" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         </is>
       </c>
       <c r="C1575" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1575" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         </is>
       </c>
       <c r="C1584" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1584" t="inlineStr">
         <is>
@@ -29116,7 +29116,7 @@
         </is>
       </c>
       <c r="C1594" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1594" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         </is>
       </c>
       <c r="C1604" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1604" t="inlineStr">
         <is>
